--- a/public/file/template tarif Udara.xlsx
+++ b/public/file/template tarif Udara.xlsx
@@ -32,19 +32,19 @@
     <t>tujuan</t>
   </si>
   <si>
-    <t>tarif</t>
-  </si>
-  <si>
     <t>airlans</t>
   </si>
   <si>
-    <t>minimal</t>
-  </si>
-  <si>
     <t>persentase</t>
   </si>
   <si>
-    <t>genco_per_kg</t>
+    <t>berat_perkg</t>
+  </si>
+  <si>
+    <t>tarif_perkg</t>
+  </si>
+  <si>
+    <t>tarif_dokumen</t>
   </si>
 </sst>
 </file>
@@ -365,8 +365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,19 +386,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/public/file/template tarif Udara.xlsx
+++ b/public/file/template tarif Udara.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>kode_tujuan</t>
   </si>
@@ -35,16 +35,13 @@
     <t>airlans</t>
   </si>
   <si>
-    <t>persentase</t>
-  </si>
-  <si>
-    <t>berat_perkg</t>
-  </si>
-  <si>
     <t>tarif_perkg</t>
   </si>
   <si>
     <t>tarif_dokumen</t>
+  </si>
+  <si>
+    <t>minimal_heavy</t>
   </si>
 </sst>
 </file>
@@ -363,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -376,9 +373,10 @@
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -389,16 +387,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/public/file/template tarif Udara.xlsx
+++ b/public/file/template tarif Udara.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KULIAH\GitKraken\suryantara\public\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\git\suryantara\public\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>kode_tujuan</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>minimal_heavy</t>
+  </si>
+  <si>
+    <t>berat_minimal</t>
   </si>
 </sst>
 </file>
@@ -360,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -373,10 +376,11 @@
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
     <col min="7" max="7" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -394,6 +398,9 @@
       </c>
       <c r="F1" t="s">
         <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/public/file/template tarif Udara.xlsx
+++ b/public/file/template tarif Udara.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>kode_tujuan</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>berat_minimal</t>
+  </si>
+  <si>
+    <t>id_cabang</t>
   </si>
 </sst>
 </file>
@@ -363,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -378,9 +381,10 @@
     <col min="5" max="5" width="18.5703125" customWidth="1"/>
     <col min="6" max="6" width="23.5703125" customWidth="1"/>
     <col min="7" max="7" width="26.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -401,6 +405,9 @@
       </c>
       <c r="G1" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
